--- a/doc/resources/BuffConfig.xlsx
+++ b/doc/resources/BuffConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>BuffConfig</t>
   </si>
@@ -33,9 +33,6 @@
     <t>免疫buff种类</t>
   </si>
   <si>
-    <t>技能选择目标</t>
-  </si>
-  <si>
     <t>buff时长(毫秒) 0表永久</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
     <t>buff销毁效果</t>
   </si>
   <si>
+    <t>子弹命中效果(子弹只能由buff来创建)</t>
+  </si>
+  <si>
     <t>某个主动技能执行成功时效果</t>
   </si>
   <si>
@@ -81,9 +81,6 @@
     <t>immuneTag</t>
   </si>
   <si>
-    <t>selectorId</t>
-  </si>
-  <si>
     <t>duration</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
     <t>destroyEffects</t>
   </si>
   <si>
+    <t>hitEffects</t>
+  </si>
+  <si>
     <t>executedEffects</t>
   </si>
   <si>
@@ -114,13 +114,22 @@
     <t>monitorSkillCasterType</t>
   </si>
   <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>CANT_MERGE</t>
+  </si>
+  <si>
+    <t>[{"type":"NORMAL_DAMAGE","t":1,"b":24}]</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
-    <t>DAMAGE</t>
-  </si>
-  <si>
-    <t>[{"type":"DAMAGE","baseDamage":"100","physicalAttackPct":10,"spellStrengthPct":10}]</t>
+    <t>[{"type":"PROJECTILE","projectileId":1}]</t>
+  </si>
+  <si>
+    <t>[{"type":"NORMAL_DAMAGE","t":1,"p":10000}]</t>
   </si>
 </sst>
 </file>
@@ -130,8 +139,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,14 +158,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,44 +206,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,38 +256,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,6 +539,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,25 +1106,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H17" sqref="G17 H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="43.75" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="13" width="52.625" customWidth="1"/>
     <col min="14" max="14" width="27.5" customWidth="1"/>
     <col min="15" max="15" width="17.25" customWidth="1"/>
     <col min="16" max="16" width="24.875" customWidth="1"/>
@@ -1187,7 +1195,7 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
@@ -1196,10 +1204,10 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
       <c r="K2" t="s">
@@ -1221,18 +1229,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/resources/BuffConfig.xlsx
+++ b/doc/resources/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>BuffConfig</t>
   </si>
@@ -54,6 +54,9 @@
     <t>buff销毁效果</t>
   </si>
   <si>
+    <t>监听buff生效效果</t>
+  </si>
+  <si>
     <t>子弹命中效果(子弹只能由buff来创建)</t>
   </si>
   <si>
@@ -87,19 +90,22 @@
     <t>mergeRule</t>
   </si>
   <si>
+    <t>startEffects</t>
+  </si>
+  <si>
+    <t>thinkInterval</t>
+  </si>
+  <si>
+    <t>thinkEffects</t>
+  </si>
+  <si>
+    <t>removeEffects</t>
+  </si>
+  <si>
+    <t>destroyEffects</t>
+  </si>
+  <si>
     <t>awakeEffects</t>
-  </si>
-  <si>
-    <t>thinkInterval</t>
-  </si>
-  <si>
-    <t>thinkEffects</t>
-  </si>
-  <si>
-    <t>removeEffects</t>
-  </si>
-  <si>
-    <t>destroyEffects</t>
   </si>
   <si>
     <t>hitEffects</t>
@@ -1106,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="G17 H17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1118,18 +1124,19 @@
     <col min="3" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="43.75" customWidth="1"/>
+    <col min="7" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="19.625" customWidth="1"/>
     <col min="10" max="10" width="17.375" customWidth="1"/>
     <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="13" width="52.625" customWidth="1"/>
-    <col min="14" max="14" width="27.5" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
-    <col min="16" max="16" width="24.875" customWidth="1"/>
+    <col min="12" max="12" width="52.625" customWidth="1"/>
+    <col min="13" max="13" width="43.75" customWidth="1"/>
+    <col min="14" max="14" width="52.625" customWidth="1"/>
+    <col min="15" max="15" width="27.5" customWidth="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,55 +1185,61 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -1234,36 +1247,36 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1002</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
